--- a/data/league_data/france/21/france_std.xlsx
+++ b/data/league_data/france/21/france_std.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59E8F0E-0347-AC46-AA5F-C125562EF3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4CCD48-79BA-A84A-9058-3C945D2529EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="6620" windowWidth="25040" windowHeight="14220"/>
+    <workbookView xWindow="80" yWindow="960" windowWidth="25040" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Steven Nzonzi</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Leo Dubois</t>
   </si>
   <si>
@@ -1622,12 +1619,15 @@
   </si>
   <si>
     <t>Edouard Mendy</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2485,11 +2485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>533</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>31</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>31</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>39</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>41</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>59</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>59</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>39</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>43</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>37</v>
@@ -6836,7 +6836,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>39</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>31</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>69</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>59</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>21</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>39</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>54</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>48</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>54</v>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>37</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>23</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>54</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>71</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>46</v>
@@ -8330,7 +8330,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>56</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>71</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>25</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>43</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>69</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>25</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>31</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>41</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>43</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>27</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>48</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>25</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>69</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>46</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>56</v>
@@ -9741,7 +9741,7 @@
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>41</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>43</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>59</v>
@@ -10073,10 +10073,10 @@
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C92" s="2">
         <v>29</v>
@@ -10156,7 +10156,7 @@
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>25</v>
@@ -10239,7 +10239,7 @@
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>71</v>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>46</v>
@@ -10405,7 +10405,7 @@
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>54</v>
@@ -10488,7 +10488,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>46</v>
@@ -10571,7 +10571,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>31</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>48</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>56</v>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>25</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>25</v>
@@ -10986,7 +10986,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>39</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>43</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>56</v>
@@ -11235,7 +11235,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>43</v>
@@ -11318,7 +11318,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>39</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>33</v>
@@ -11484,10 +11484,10 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2">
         <v>31</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>29</v>
@@ -11650,7 +11650,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>59</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>46</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>33</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>35</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>29</v>
@@ -12065,7 +12065,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>69</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>56</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>43</v>
@@ -12314,7 +12314,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>23</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>27</v>
@@ -12480,7 +12480,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
@@ -12563,7 +12563,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>54</v>
@@ -12646,10 +12646,10 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2">
         <v>28</v>
@@ -12729,7 +12729,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>27</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>29</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>48</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>31</v>
@@ -13061,7 +13061,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>71</v>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>43</v>
@@ -13227,7 +13227,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>31</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>35</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>71</v>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>46</v>
@@ -13559,7 +13559,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>59</v>
@@ -13642,7 +13642,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>23</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>25</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>41</v>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>21</v>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>33</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>33</v>
@@ -14140,7 +14140,7 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>35</v>
@@ -14223,7 +14223,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>46</v>
@@ -14306,7 +14306,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>27</v>
@@ -14389,7 +14389,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>69</v>
@@ -14472,7 +14472,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>69</v>
@@ -14555,7 +14555,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>27</v>
@@ -14638,7 +14638,7 @@
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>43</v>
@@ -14721,10 +14721,10 @@
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2">
         <v>25</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>21</v>
@@ -14887,7 +14887,7 @@
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>46</v>
@@ -14970,7 +14970,7 @@
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>48</v>
@@ -15053,7 +15053,7 @@
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>59</v>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>69</v>
@@ -15219,7 +15219,7 @@
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>41</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>71</v>
@@ -15385,7 +15385,7 @@
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>71</v>
@@ -15468,7 +15468,7 @@
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>29</v>
@@ -15551,7 +15551,7 @@
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>21</v>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>39</v>
@@ -15717,7 +15717,7 @@
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>23</v>
@@ -15800,7 +15800,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>33</v>
@@ -15883,7 +15883,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>48</v>
@@ -15966,7 +15966,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>48</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>41</v>
@@ -16132,7 +16132,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>46</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>54</v>
@@ -16298,7 +16298,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>54</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>59</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>59</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>31</v>
@@ -16630,7 +16630,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>43</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>56</v>
@@ -16796,7 +16796,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>59</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>37</v>
@@ -16962,7 +16962,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>56</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>29</v>
@@ -17128,7 +17128,7 @@
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>27</v>
@@ -17211,7 +17211,7 @@
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>71</v>
@@ -17294,7 +17294,7 @@
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>21</v>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>41</v>
@@ -17460,7 +17460,7 @@
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>33</v>
@@ -17543,7 +17543,7 @@
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>21</v>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>27</v>
@@ -17709,7 +17709,7 @@
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>39</v>
@@ -17792,7 +17792,7 @@
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>27</v>
@@ -17875,10 +17875,10 @@
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C186" s="2">
         <v>27</v>
@@ -17958,10 +17958,10 @@
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C187" s="2">
         <v>31</v>
@@ -18041,7 +18041,7 @@
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>69</v>
@@ -18124,7 +18124,7 @@
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>69</v>
@@ -18207,7 +18207,7 @@
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>71</v>
@@ -18290,7 +18290,7 @@
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>27</v>
@@ -18373,7 +18373,7 @@
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>21</v>
@@ -18456,7 +18456,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>35</v>
@@ -18539,7 +18539,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>21</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>31</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>37</v>
@@ -18788,7 +18788,7 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>48</v>
@@ -18871,7 +18871,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>48</v>
@@ -18954,7 +18954,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>56</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>31</v>
@@ -19120,7 +19120,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>35</v>
@@ -19203,7 +19203,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>35</v>
@@ -19286,7 +19286,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>31</v>
@@ -19369,7 +19369,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>23</v>
@@ -19452,7 +19452,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>21</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>48</v>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>37</v>
@@ -19701,7 +19701,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>25</v>
@@ -19784,7 +19784,7 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>29</v>
@@ -19867,10 +19867,10 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C210" s="2">
         <v>26</v>
@@ -19950,10 +19950,10 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C211" s="2">
         <v>26</v>
@@ -20033,7 +20033,7 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>23</v>
@@ -20116,7 +20116,7 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>54</v>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>29</v>
@@ -20282,7 +20282,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>37</v>
@@ -20365,7 +20365,7 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>41</v>
@@ -20448,7 +20448,7 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>39</v>
@@ -20531,7 +20531,7 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>35</v>
@@ -20614,7 +20614,7 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>46</v>
@@ -20697,7 +20697,7 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>71</v>
@@ -20780,7 +20780,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>27</v>
@@ -20863,7 +20863,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>71</v>
@@ -20946,7 +20946,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>23</v>
@@ -21029,10 +21029,10 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C224" s="2">
         <v>24</v>
@@ -21112,7 +21112,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>69</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>25</v>
@@ -21278,7 +21278,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>27</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>37</v>
@@ -21444,7 +21444,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>39</v>
@@ -21527,10 +21527,10 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C230" s="2">
         <v>28</v>
@@ -21610,7 +21610,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>39</v>
@@ -21693,7 +21693,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>54</v>
@@ -21776,7 +21776,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>25</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>29</v>
@@ -21942,7 +21942,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>39</v>
@@ -22025,7 +22025,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>59</v>
@@ -22108,10 +22108,10 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C237" s="2">
         <v>21</v>
@@ -22191,7 +22191,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>35</v>
@@ -22274,7 +22274,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>29</v>
@@ -22357,7 +22357,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>35</v>
@@ -22440,7 +22440,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>23</v>
@@ -22523,7 +22523,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>33</v>
@@ -22606,7 +22606,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>21</v>
@@ -22689,10 +22689,10 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C244" s="2">
         <v>21</v>
@@ -22772,10 +22772,10 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C245" s="2">
         <v>22</v>
@@ -22855,7 +22855,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>21</v>
@@ -22938,7 +22938,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>29</v>
@@ -23021,7 +23021,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>31</v>
@@ -23104,7 +23104,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>23</v>
@@ -23187,7 +23187,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>37</v>
@@ -23270,7 +23270,7 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>43</v>
@@ -23353,7 +23353,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>27</v>
@@ -23436,10 +23436,10 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C253" s="2">
         <v>23</v>
@@ -23519,10 +23519,10 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C254" s="2">
         <v>18</v>
@@ -23602,7 +23602,7 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>54</v>
@@ -23685,7 +23685,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>43</v>
@@ -23768,7 +23768,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>46</v>
@@ -23851,7 +23851,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>56</v>
@@ -23934,10 +23934,10 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C259" s="2">
         <v>23</v>
@@ -24017,10 +24017,10 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C260" s="2">
         <v>25</v>
@@ -24100,7 +24100,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>71</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>56</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>23</v>
@@ -24349,7 +24349,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>69</v>
@@ -24432,7 +24432,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>21</v>
@@ -24515,7 +24515,7 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>48</v>
@@ -24598,7 +24598,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>29</v>
@@ -24681,10 +24681,10 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C268" s="2">
         <v>27</v>
@@ -24764,7 +24764,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>35</v>
@@ -24847,7 +24847,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>71</v>
@@ -24930,7 +24930,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>43</v>
@@ -25013,10 +25013,10 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C272" s="2">
         <v>21</v>
@@ -25096,7 +25096,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>71</v>
@@ -25179,7 +25179,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>41</v>
@@ -25262,7 +25262,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>27</v>
@@ -25345,10 +25345,10 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C276" s="2">
         <v>19</v>
@@ -25428,7 +25428,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>33</v>
@@ -25511,7 +25511,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>33</v>
@@ -25594,7 +25594,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>48</v>
@@ -25677,7 +25677,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>23</v>
@@ -25760,7 +25760,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>21</v>
@@ -25843,7 +25843,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>41</v>
@@ -25926,7 +25926,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>35</v>
@@ -26009,7 +26009,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>48</v>
@@ -26092,7 +26092,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>46</v>
@@ -26175,7 +26175,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>35</v>
@@ -26258,7 +26258,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>46</v>
@@ -26341,7 +26341,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>39</v>
@@ -26424,7 +26424,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>43</v>
@@ -26507,7 +26507,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>21</v>
@@ -26590,7 +26590,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>33</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>27</v>
@@ -26756,7 +26756,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>25</v>
@@ -26839,7 +26839,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>48</v>
@@ -26922,7 +26922,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>56</v>
@@ -27005,7 +27005,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>46</v>
@@ -27088,7 +27088,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>43</v>
@@ -27171,7 +27171,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>71</v>
@@ -27254,7 +27254,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>31</v>
@@ -27337,7 +27337,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>37</v>
@@ -27420,7 +27420,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>27</v>
@@ -27503,7 +27503,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>35</v>
@@ -27586,7 +27586,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>43</v>
@@ -27669,7 +27669,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>69</v>
@@ -27752,7 +27752,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>23</v>
@@ -27835,7 +27835,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>27</v>
@@ -27918,7 +27918,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>33</v>
@@ -28001,7 +28001,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>27</v>
@@ -28084,10 +28084,10 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C309" s="2">
         <v>20</v>
@@ -28167,7 +28167,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>56</v>
@@ -28250,7 +28250,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>21</v>
@@ -28333,7 +28333,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>25</v>
@@ -28416,7 +28416,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>37</v>
@@ -28499,7 +28499,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>59</v>
@@ -28582,10 +28582,10 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C315" s="2">
         <v>24</v>
@@ -28665,7 +28665,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>21</v>
@@ -28748,7 +28748,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>21</v>
@@ -28831,7 +28831,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>35</v>
@@ -28914,7 +28914,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>69</v>
@@ -28997,7 +28997,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>25</v>
@@ -29080,7 +29080,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>39</v>
@@ -29163,7 +29163,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>54</v>
@@ -29246,7 +29246,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>37</v>
@@ -29329,7 +29329,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>37</v>
@@ -29412,7 +29412,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>48</v>
@@ -29495,7 +29495,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>29</v>
@@ -29578,7 +29578,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>37</v>
@@ -29661,7 +29661,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>25</v>
@@ -29744,7 +29744,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>54</v>
@@ -29827,7 +29827,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>71</v>
@@ -29910,7 +29910,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>21</v>
@@ -29993,7 +29993,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>54</v>
@@ -30076,7 +30076,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>23</v>
@@ -30159,7 +30159,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>29</v>
@@ -30242,7 +30242,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>37</v>
@@ -30325,7 +30325,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>48</v>
@@ -30408,7 +30408,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>23</v>
@@ -30491,7 +30491,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>71</v>
@@ -30574,7 +30574,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>35</v>
@@ -30657,7 +30657,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>41</v>
@@ -30740,7 +30740,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>33</v>
@@ -30823,7 +30823,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>59</v>
@@ -30906,7 +30906,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>33</v>
@@ -30989,7 +30989,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>56</v>
@@ -31072,7 +31072,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>39</v>
@@ -31155,7 +31155,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>71</v>
@@ -31238,7 +31238,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>27</v>
@@ -31321,7 +31321,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>39</v>
@@ -31404,7 +31404,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>43</v>
@@ -31487,7 +31487,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>54</v>
@@ -31570,7 +31570,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>39</v>
@@ -31653,7 +31653,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>59</v>
@@ -31736,10 +31736,10 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C353" s="2">
         <v>10</v>
@@ -31819,7 +31819,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>25</v>
@@ -31902,7 +31902,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>59</v>
@@ -31985,7 +31985,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>69</v>
@@ -32068,7 +32068,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>21</v>
@@ -32151,7 +32151,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>35</v>
@@ -32234,7 +32234,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>37</v>
@@ -32317,7 +32317,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>46</v>
@@ -32400,7 +32400,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>27</v>
@@ -32483,7 +32483,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>48</v>
@@ -32566,7 +32566,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>23</v>
@@ -32649,7 +32649,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>48</v>
@@ -32732,7 +32732,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>69</v>
@@ -32815,7 +32815,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>25</v>
@@ -32898,7 +32898,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>35</v>
@@ -32981,7 +32981,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>25</v>
@@ -33064,7 +33064,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>31</v>
@@ -33147,7 +33147,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>41</v>
@@ -33230,7 +33230,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>31</v>
@@ -33313,7 +33313,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>39</v>
@@ -33396,7 +33396,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>37</v>
@@ -33479,7 +33479,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>59</v>
@@ -33562,7 +33562,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>56</v>
@@ -33645,7 +33645,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>41</v>
@@ -33728,7 +33728,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>48</v>
@@ -33811,7 +33811,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>35</v>
@@ -33894,7 +33894,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>39</v>
@@ -33977,7 +33977,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>54</v>
@@ -34060,7 +34060,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>56</v>
@@ -34143,7 +34143,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>54</v>
@@ -34226,7 +34226,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>43</v>
@@ -34309,7 +34309,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>31</v>
@@ -34392,7 +34392,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>25</v>
@@ -34475,7 +34475,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>48</v>
@@ -34558,7 +34558,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>56</v>
@@ -34641,7 +34641,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>46</v>
@@ -34724,7 +34724,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>27</v>
@@ -34807,7 +34807,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>46</v>
@@ -34890,7 +34890,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>69</v>
@@ -34973,7 +34973,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>21</v>
@@ -35056,7 +35056,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>35</v>
@@ -35139,7 +35139,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>69</v>
@@ -35222,7 +35222,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>48</v>
@@ -35305,7 +35305,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>27</v>
@@ -35388,7 +35388,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>35</v>
@@ -35471,7 +35471,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>25</v>
@@ -35554,7 +35554,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>41</v>
@@ -35637,7 +35637,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>43</v>
@@ -35720,7 +35720,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>41</v>
@@ -35803,7 +35803,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>37</v>
@@ -35886,7 +35886,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>25</v>
@@ -35969,7 +35969,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>56</v>
@@ -36052,7 +36052,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>48</v>
@@ -36135,7 +36135,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>35</v>
@@ -36218,7 +36218,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>54</v>
@@ -36301,7 +36301,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>46</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>27</v>
@@ -36467,7 +36467,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>54</v>
@@ -36550,7 +36550,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>69</v>
@@ -36633,7 +36633,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>31</v>
@@ -36716,7 +36716,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>56</v>
@@ -36799,7 +36799,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>23</v>
@@ -36882,7 +36882,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>27</v>
@@ -36965,7 +36965,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>56</v>
@@ -37048,7 +37048,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>39</v>
@@ -37131,7 +37131,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>59</v>
@@ -37214,10 +37214,10 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C419" s="2">
         <v>6</v>
@@ -37297,7 +37297,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>56</v>
@@ -37380,7 +37380,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>37</v>
@@ -37463,7 +37463,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>54</v>
@@ -37546,7 +37546,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>48</v>
@@ -37629,7 +37629,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>29</v>
@@ -37712,7 +37712,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>69</v>
@@ -37795,7 +37795,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>59</v>
@@ -37878,7 +37878,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>23</v>
@@ -37961,7 +37961,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>27</v>
@@ -38044,7 +38044,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>41</v>
@@ -38127,7 +38127,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>71</v>
@@ -38210,7 +38210,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>33</v>
@@ -38293,7 +38293,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>48</v>
@@ -38376,7 +38376,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>59</v>
@@ -38459,7 +38459,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>46</v>
@@ -38542,7 +38542,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>39</v>
@@ -38625,7 +38625,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>37</v>
@@ -38708,7 +38708,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>25</v>
@@ -38791,7 +38791,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>56</v>
@@ -38874,7 +38874,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>54</v>
@@ -38957,7 +38957,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>35</v>
@@ -39040,7 +39040,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>59</v>
@@ -39123,7 +39123,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>48</v>
@@ -39206,7 +39206,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>48</v>
@@ -39289,7 +39289,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>54</v>
@@ -39372,7 +39372,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>23</v>
@@ -39455,7 +39455,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>23</v>
@@ -39538,7 +39538,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>37</v>
@@ -39621,7 +39621,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>41</v>
@@ -39704,7 +39704,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>56</v>
@@ -39787,7 +39787,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>21</v>
@@ -39870,7 +39870,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>59</v>
@@ -39953,7 +39953,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>48</v>
@@ -40036,7 +40036,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>46</v>
@@ -40119,7 +40119,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>39</v>
@@ -40202,7 +40202,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>59</v>
@@ -40285,7 +40285,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>25</v>
@@ -40368,7 +40368,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>48</v>
@@ -40451,7 +40451,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>35</v>
@@ -40534,7 +40534,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>71</v>
@@ -40617,7 +40617,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>71</v>
@@ -40700,7 +40700,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>33</v>
@@ -40783,10 +40783,10 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C462" s="2">
         <v>3</v>
@@ -40866,7 +40866,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>31</v>
@@ -40949,7 +40949,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>23</v>
@@ -41032,10 +41032,10 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C465" s="2">
         <v>7</v>
@@ -41115,7 +41115,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>41</v>
@@ -41198,7 +41198,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>31</v>
@@ -41281,7 +41281,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>27</v>
@@ -41364,7 +41364,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>43</v>
@@ -41447,7 +41447,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>27</v>
@@ -41530,7 +41530,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>31</v>
@@ -41613,7 +41613,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>39</v>
@@ -41696,7 +41696,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>33</v>
@@ -41779,7 +41779,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>37</v>
@@ -41862,7 +41862,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>59</v>
@@ -41945,7 +41945,7 @@
     </row>
     <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>41</v>
@@ -42028,7 +42028,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>39</v>
@@ -42111,7 +42111,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>48</v>
@@ -42194,7 +42194,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>23</v>
@@ -42277,7 +42277,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>39</v>
@@ -42360,7 +42360,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>43</v>
@@ -42443,7 +42443,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>69</v>
@@ -42526,7 +42526,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>56</v>
@@ -42609,7 +42609,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>35</v>
@@ -42692,7 +42692,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>27</v>
@@ -42775,7 +42775,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>39</v>
@@ -42858,7 +42858,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>27</v>
@@ -42941,7 +42941,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>21</v>
@@ -43024,7 +43024,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>43</v>
@@ -43107,7 +43107,7 @@
     </row>
     <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>41</v>
@@ -43190,7 +43190,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>21</v>
@@ -43273,7 +43273,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>69</v>
@@ -43356,7 +43356,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>27</v>
@@ -43439,7 +43439,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>59</v>
@@ -43522,7 +43522,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>48</v>
@@ -43605,7 +43605,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>25</v>
@@ -43688,10 +43688,10 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C497" s="2">
         <v>1</v>
@@ -43771,7 +43771,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>71</v>
@@ -43854,7 +43854,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>59</v>
@@ -43937,7 +43937,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>56</v>
